--- a/HyPAT/datafiles/default_entry_vals.xlsx
+++ b/HyPAT/datafiles/default_entry_vals.xlsx
@@ -632,13 +632,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C0ADF62-8449-4647-88A8-C69BA934ECA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{391B23DA-CEA7-403B-A4C1-9E21495B1E78}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EC0D6CA-5FCF-4543-90D2-ECC865ABC785}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7566A35-2353-49DE-9B49-FA54B8489188}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E42E1D-A7FF-47D1-96F4-64B975C09BC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE2C116-9EB1-446E-B6EF-DF23B39F3CE9}"/>
 </file>
--- a/HyPAT/datafiles/default_entry_vals.xlsx
+++ b/HyPAT/datafiles/default_entry_vals.xlsx
@@ -459,9 +459,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <xsd:import namespace="ca77b916-f394-4de9-b274-c15ee8638632"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -474,6 +475,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -515,6 +518,28 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b78db39-37aa-4e28-bb7e-9642684d42d7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca77b916-f394-4de9-b274-c15ee8638632" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9bdfb1f9-b4f9-4545-a4bc-c42b1cd3b611}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2d7da570-499c-4ae8-bbfb-bca14132ce0c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -627,18 +652,23 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{391B23DA-CEA7-403B-A4C1-9E21495B1E78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9BF6F31-5FB8-42D8-9EE0-915DBECAB26B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7566A35-2353-49DE-9B49-FA54B8489188}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EC0D6CA-5FCF-4543-90D2-ECC865ABC785}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BE2C116-9EB1-446E-B6EF-DF23B39F3CE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E42E1D-A7FF-47D1-96F4-64B975C09BC5}"/>
 </file>